--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2621204.836546542</v>
+        <v>2696734.506211348</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>188.5970350096846</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>376.6743538733476</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>50.20645720597742</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>135.1787052649172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>140.619228472027</v>
       </c>
       <c r="G5" t="n">
-        <v>327.1469135142183</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,19 +952,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.70304834264668</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.45572650406967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>192.0590399602816</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481155</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>41.85786711676044</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250814</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229324</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853692</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491421</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>54.17431468188894</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>152.6509495310451</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>141.1712451439424</v>
       </c>
       <c r="W13" t="n">
-        <v>225.1809026611662</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1818,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750089</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>94.19593683411266</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>107.5343485526724</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.11010085258663</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>200.3447840586502</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>71.66487306809283</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065123</v>
+        <v>131.9582973670249</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722643</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274202</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>102.5528017442281</v>
       </c>
       <c r="U31" t="n">
-        <v>20.84768854989531</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.4374166734258</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>149.0799667719512</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>39.47903663031129</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>215.0546805228906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,13 +3562,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>64.77871132208426</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9576419790511</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.320606388582</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>79.71208056177277</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1374.814428194113</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1005.851911253702</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1005.851911253702</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1005.851911253702</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.414268258235</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>2327.601408697533</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>2327.601408697533</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>2327.601408697533</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2327.601408697533</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2617.018578734494</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2617.018578734494</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2617.018578734494</v>
       </c>
       <c r="W4" t="n">
-        <v>591.5848374741946</v>
+        <v>2327.601408697533</v>
       </c>
       <c r="X4" t="n">
-        <v>591.5848374741946</v>
+        <v>2327.601408697533</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.7922583306645</v>
+        <v>2327.601408697533</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1307.111989013772</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C5" t="n">
-        <v>1307.111989013772</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="D5" t="n">
-        <v>948.846290407022</v>
+        <v>1480.395363208549</v>
       </c>
       <c r="E5" t="n">
-        <v>948.846290407022</v>
+        <v>1094.607110610304</v>
       </c>
       <c r="F5" t="n">
-        <v>537.8603856174145</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4577,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4600,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013772</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="6">
@@ -4656,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113768</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777.3160057778007</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>408.353488837389</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>408.353488837389</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>408.353488837389</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>401.4079880881855</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791255</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018225</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548718</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834951</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.546461473043</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.483574129472</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y8" t="n">
-        <v>777.3160057778007</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615932</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572653</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315297</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>544.5191867458693</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.9429818203645</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866328</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477914</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658215</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502507</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.261789359491</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064352</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600573</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>550.5654064942413</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>495.8438765125353</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>268.535689181137</v>
       </c>
       <c r="U10" t="n">
-        <v>544.5191867458693</v>
+        <v>268.535689181137</v>
       </c>
       <c r="V10" t="n">
-        <v>544.5191867458693</v>
+        <v>268.535689181137</v>
       </c>
       <c r="W10" t="n">
-        <v>544.5191867458693</v>
+        <v>268.535689181137</v>
       </c>
       <c r="X10" t="n">
-        <v>544.5191867458693</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.5191867458693</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5030,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655742</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905256</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.99626047346</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>690.9347955329705</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>690.9347955329705</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>635.9655670641829</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5734,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5817,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>507.0827848727882</v>
+        <v>4224.601609893719</v>
       </c>
       <c r="C22" t="n">
-        <v>507.0827848727882</v>
+        <v>4224.601609893719</v>
       </c>
       <c r="D22" t="n">
-        <v>507.0827848727882</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U22" t="n">
-        <v>761.7672730786751</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V22" t="n">
-        <v>507.0827848727882</v>
+        <v>4406.250074723958</v>
       </c>
       <c r="W22" t="n">
-        <v>507.0827848727882</v>
+        <v>4406.250074723958</v>
       </c>
       <c r="X22" t="n">
-        <v>507.0827848727882</v>
+        <v>4406.250074723958</v>
       </c>
       <c r="Y22" t="n">
-        <v>507.0827848727882</v>
+        <v>4406.250074723958</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6068,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M24" t="n">
         <v>1247.466478653857</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>4744.160657054475</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843982</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.24660305754</v>
+        <v>891.7469811499454</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851653</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814692</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6211,13 @@
         <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2292.946699347403</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129612</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>4660.934562929847</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>4527.643353468206</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>4238.514714681764</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>4238.514714681764</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>3949.097544644803</v>
       </c>
       <c r="X28" t="n">
-        <v>318.009670603816</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746786</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805482</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822475</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,28 +6487,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690736</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409609</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742902</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769787</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373972</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.68132280566</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>2375.989236263801</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>2525.058920465861</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>2771.824048372325</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>3079.144181652287</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>3883.555759916438</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>4553.019521219097</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4758.042002001307</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641235</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409492</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.53946268129</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475758</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710804</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.0432218861032</v>
+        <v>4036.632755132883</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581963</v>
+        <v>3867.696572204976</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581963</v>
+        <v>3717.57993279264</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581963</v>
+        <v>3717.57993279264</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.68998529473</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.68998529473</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.68998529473</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380587</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625199</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636328</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403511</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431059</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436456</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042139</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.77946957612</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.859459491673</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>4446.27077086114</v>
       </c>
       <c r="U31" t="n">
-        <v>1366.782895857208</v>
+        <v>4446.27077086114</v>
       </c>
       <c r="V31" t="n">
-        <v>1112.098407651321</v>
+        <v>4446.27077086114</v>
       </c>
       <c r="W31" t="n">
-        <v>822.6812376143603</v>
+        <v>4446.27077086114</v>
       </c>
       <c r="X31" t="n">
-        <v>594.6916867163429</v>
+        <v>4218.281219963123</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.6916867163429</v>
+        <v>4218.281219963123</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,10 +6703,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515096</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341675</v>
+        <v>816.7950850315606</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1124.115218311522</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,10 +6861,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1348.33044553573</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1124.545030325236</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126483</v>
@@ -7023,19 +7025,19 @@
         <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.2482765610114</v>
+        <v>3756.161980826921</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>3756.161980826921</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404653</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>4709.901654798025</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>4709.901654798025</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>4709.901654798025</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557903</v>
+        <v>4455.217166592139</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557903</v>
+        <v>4165.799996555178</v>
       </c>
       <c r="X37" t="n">
-        <v>1281.689320534781</v>
+        <v>3937.81044565716</v>
       </c>
       <c r="Y37" t="n">
-        <v>1060.896741391251</v>
+        <v>3937.81044565716</v>
       </c>
     </row>
     <row r="38">
@@ -7169,46 +7171,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.96990386717</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085867</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,19 +7435,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>789.0753054710162</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W43" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8522179318355</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8522179318355</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095317</v>
+        <v>485.4047026089406</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.474758001781</v>
+        <v>732.1698305154048</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281742</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N45" t="n">
-        <v>4081.182609697672</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>4360.722674916369</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1418.399017465203</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1194.613602254709</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1194.613602254709</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1194.613602254709</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
   </sheetData>
@@ -8304,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451741</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>22.04402060665558</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>38.86002301949938</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>19.1440959699699</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706262878</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622677</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>159.0121003135234</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119822</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.2863157167175</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>169.2863157167176</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669951</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>288.4091825776735</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>110.9663981798856</v>
       </c>
       <c r="W13" t="n">
-        <v>61.34209567542484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338031</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>131.5137185549245</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>38.8996140938968</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5053721656257</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>85.8925683399271</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338454</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>214.5724793304845</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518769</v>
+        <v>89.58926369136438</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>118.9947593141612</v>
       </c>
       <c r="U31" t="n">
-        <v>265.389663848682</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>27.80940442520205</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>48.84084321165207</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>158.4417733532919</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>10.65497486614655</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>81.65525132448491</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>57.18000134477688</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.20239194800899</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641869</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>118.2087294218305</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="F2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>586543.5896065632</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>586543.5896065625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="M2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065632</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.473837513316539e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925931</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26423,43 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.66962143898</v>
       </c>
       <c r="L4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340951</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-213820.5881309635</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835807</v>
+        <v>376147.2910835808</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835807</v>
+        <v>376147.2910835799</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048896</v>
+        <v>-45649.44244048795</v>
       </c>
       <c r="F6" t="n">
+        <v>479510.5940364073</v>
+      </c>
+      <c r="G6" t="n">
         <v>479510.5940364075</v>
       </c>
-      <c r="G6" t="n">
-        <v>479510.5940364073</v>
-      </c>
       <c r="H6" t="n">
-        <v>479510.594036407</v>
+        <v>479510.5940364068</v>
       </c>
       <c r="I6" t="n">
+        <v>479510.5940364067</v>
+      </c>
+      <c r="J6" t="n">
+        <v>303087.3748438144</v>
+      </c>
+      <c r="K6" t="n">
+        <v>479510.5940364076</v>
+      </c>
+      <c r="L6" t="n">
         <v>479510.5940364072</v>
       </c>
-      <c r="J6" t="n">
-        <v>303087.3748438141</v>
-      </c>
-      <c r="K6" t="n">
-        <v>479510.5940364073</v>
-      </c>
-      <c r="L6" t="n">
-        <v>479510.5940364071</v>
-      </c>
       <c r="M6" t="n">
-        <v>344709.5788025698</v>
+        <v>344709.5788025705</v>
       </c>
       <c r="N6" t="n">
         <v>479510.5940364075</v>
       </c>
       <c r="O6" t="n">
-        <v>479510.5940364077</v>
+        <v>479510.5940364071</v>
       </c>
       <c r="P6" t="n">
-        <v>479510.594036407</v>
+        <v>479510.5940364072</v>
       </c>
     </row>
   </sheetData>
@@ -26741,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170873</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26793,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545563</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26820,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370129</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990183</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>194.136806653796</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>30.20169186836381</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,10 +27438,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>174.8286482521069</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>151.3442930716738</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>266.2568172696845</v>
       </c>
       <c r="G5" t="n">
-        <v>86.6372565065767</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27791,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>270.8199499939443</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>169.1289268480251</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>221.7251300605134</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448611</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>307.3831016006526</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>157.9712242681299</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.6309247109327</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1.261613448107335e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29518,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1.64259340283529e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340048</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141002</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554476</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727438</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630673</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405372</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338308</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.861538911987</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.371903895467</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.988205504414</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633813</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727388</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473564</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141123</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188927</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890694</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396489</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649104</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.416982047801</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983125</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736704</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.315665592305</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.152864647958</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639067</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703499</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131475</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.27496629637267</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619162</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078622</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644452</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492008</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813585</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302252</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246926</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666596</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175859</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383813</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678017</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701169</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695338</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197228</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315616</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32944,40 +32946,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33029,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33050,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33181,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33266,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33287,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33430,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33451,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33579,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33591,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33667,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33688,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33816,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33828,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343422</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435305</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492241</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530457</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116801</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898692</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770703</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.82557620313</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.702947571386</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262941</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355112</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245901</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735649</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137343</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713967</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458882</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557983</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>355.2385940046684</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520608</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>245.953437951024</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>268.4018009259944</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>116.135669847703</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,19 +36761,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>103.851081831301</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36996,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>408.2698052695479</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37233,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109073</v>
@@ -37315,19 +37317,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>479.7106927671839</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37470,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>502.4808891147306</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>427.5988335514877</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>224.1074838346388</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
@@ -38105,7 +38107,7 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>621.6037559756865</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2696734.506211348</v>
+        <v>2689717.491319635</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.5970350096846</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>50.20645720597742</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>74.53436060286474</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>140.619228472027</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>17.23430169187246</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>234.4871813790489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.70304834264668</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481155</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>39.22879305694475</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>41.85786711676044</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853692</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491421</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="S10" t="n">
-        <v>54.17431468188894</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9823010373413</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>141.1712451439424</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>94.19593683411266</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>107.5343485526724</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.11010085258663</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>71.66487306809283</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>131.9582973670249</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722643</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896933</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>102.5528017442281</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470136</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.4374166734258</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>140.6610716410231</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>39.47903663031129</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>64.77871132208426</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W43" t="n">
-        <v>204.320606388582</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8197666582911</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1970.914677487028</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2327.601408697533</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>2327.601408697533</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>2327.601408697533</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2327.601408697533</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2617.018578734494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2617.018578734494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2617.018578734494</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="W4" t="n">
-        <v>2327.601408697533</v>
+        <v>652.8417512742476</v>
       </c>
       <c r="X4" t="n">
-        <v>2327.601408697533</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y4" t="n">
-        <v>2327.601408697533</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1838.661061815299</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1838.661061815299</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1480.395363208549</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1094.607110610304</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.740705470876</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.740705470876</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2679.740705470876</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2679.740705470876</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2348.677818127306</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.661061815299</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.661061815299</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W7" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X7" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.9429818203645</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791255</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862888</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834951</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473043</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129472</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W8" t="n">
-        <v>1620.202900274159</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.202900274159</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615932</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572653</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315297</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.9429818203645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477914</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658215</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502507</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.261789359491</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600573</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942413</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S10" t="n">
-        <v>495.8438765125353</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T10" t="n">
-        <v>268.535689181137</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U10" t="n">
-        <v>268.535689181137</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V10" t="n">
-        <v>268.535689181137</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W10" t="n">
-        <v>268.535689181137</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X10" t="n">
-        <v>268.535689181137</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.535689181137</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,7 +5035,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1689.561836756086</v>
+        <v>857.5427825698957</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>846.3978353108171</v>
+        <v>988.9950526279302</v>
       </c>
       <c r="C13" t="n">
-        <v>677.4616523829102</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1067.190414454347</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>1067.190414454347</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.190414454347</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="Y13" t="n">
-        <v>846.3978353108171</v>
+        <v>988.9950526279302</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265284</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2050.644882483981</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.2863307027308</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>509.2863307027308</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>690.9347955329705</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y16" t="n">
-        <v>690.9347955329705</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128704</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2292.946699347401</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>635.9655670641829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>786.0822064765186</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>786.0822064765186</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>786.0822064765186</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2520.760934363148</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4224.601609893719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4224.601609893719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4660.934562929845</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>4406.250074723958</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>4406.250074723958</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>4406.250074723958</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4406.250074723958</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>940.1463453738954</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6147,7 +6147,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247867</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>891.7469811499454</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>637.0624929440586</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>637.0624929440586</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>637.0624929440586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277036</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2013.406634128705</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2292.946699347403</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2497.969180129612</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929847</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4527.643353468206</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4238.514714681764</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4238.514714681764</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3949.097544644803</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003443</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6472,13 +6472,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6487,28 +6487,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690736</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409609</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742902</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769787</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373972</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.68132280566</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263801</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465861</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372325</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M30" t="n">
-        <v>3079.144181652287</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>3883.555759916438</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>4553.019521219097</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4758.042002001307</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014295</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014295</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641235</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409492</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.53946268129</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475758</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710804</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4036.632755132883</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>3867.696572204976</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>3717.57993279264</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>3717.57993279264</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.68998529473</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.68998529473</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.68998529473</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380587</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625199</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636328</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403511</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042139</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014295</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.77946957612</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491673</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4446.27077086114</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>4446.27077086114</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>4446.27077086114</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>4446.27077086114</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>4218.281219963123</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>4218.281219963123</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6697,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315606</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311522</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688073</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y34" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6946,7 +6946,7 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619126</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1396.107276203137</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.96990386717</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085867</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3756.161980826921</v>
+        <v>534.1020230870773</v>
       </c>
       <c r="C37" t="n">
-        <v>3756.161980826921</v>
+        <v>534.1020230870773</v>
       </c>
       <c r="D37" t="n">
-        <v>3606.045341414585</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414585</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4709.901654798025</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4709.901654798025</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>4709.901654798025</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>4455.217166592139</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>4165.799996555178</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X37" t="n">
-        <v>3937.81044565716</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y37" t="n">
-        <v>3937.81044565716</v>
+        <v>534.1020230870773</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227918</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169049</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W40" t="n">
-        <v>330.8254548799443</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X40" t="n">
-        <v>330.8254548799443</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y40" t="n">
-        <v>330.8254548799443</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,7 +7447,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>726.8522179318355</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8522179318355</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>485.4047026089406</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>732.1698305154048</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>216.9038434870662</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C46" t="n">
-        <v>216.9038434870662</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>216.9038434870662</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>216.9038434870662</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305963</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870662</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451741</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>15.8380490462294</v>
       </c>
       <c r="N12" t="n">
-        <v>22.04402060665558</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>73.53204524670059</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>38.86002301949938</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
-        <v>15.83804904622872</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>19.1440959699699</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.12263706262878</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>15.83804904622677</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>159.0121003135234</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,10 +10594,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119822</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10670,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M36" t="n">
-        <v>169.2863157167175</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>145.2351313103796</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>73.53204524669951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.26452006128649</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037968</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>110.9663981798856</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>131.5137185549245</v>
+        <v>161.3677477496533</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>38.8996140938968</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.5053721656257</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>214.5724793304845</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>89.58926369136438</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.9947593141612</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>27.80940442520205</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>7.954401377189242</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>158.4417733532919</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>81.65525132448491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709077</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W43" t="n">
-        <v>82.20239194800899</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>26.93116351641869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>80.88988873074607</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
-      </c>
       <c r="E2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="H2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="M2" t="n">
         <v>586543.5896065632</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065631</v>
       </c>
       <c r="N2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.473837513316539e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768953</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,13 +26423,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,25 +26441,25 @@
         <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143898</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="M4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340951</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26487,28 +26487,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871668</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.5881309635</v>
+        <v>-213820.5881309639</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835808</v>
+        <v>376147.2910835805</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835799</v>
+        <v>376147.2910835807</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048795</v>
+        <v>-46624.03370021076</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364073</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.5940364075</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.5940364068</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.5940364067</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438144</v>
+        <v>302112.7835840925</v>
       </c>
       <c r="K6" t="n">
-        <v>479510.5940364076</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="L6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766857</v>
       </c>
       <c r="M6" t="n">
-        <v>344709.5788025705</v>
+        <v>343734.9875428488</v>
       </c>
       <c r="N6" t="n">
-        <v>479510.5940364075</v>
+        <v>478536.0027766856</v>
       </c>
       <c r="O6" t="n">
-        <v>479510.5940364071</v>
+        <v>478536.0027766856</v>
       </c>
       <c r="P6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766855</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170873</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545563</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370129</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990168</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194.136806653796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>174.8286482521069</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>177.6032827209633</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>266.2568172696845</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.24410088293926</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>51.79469286292885</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>270.8199499939443</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448611</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>211.9953744513446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>307.3831016006526</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>120.3363719396575</v>
       </c>
       <c r="S10" t="n">
-        <v>157.9712242681299</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.261613448107335e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29520,13 +29520,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.64259340283529e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-6.823790099157014e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554476</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630673</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405372</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.861538911987</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633813</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473564</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141123</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188927</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890694</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396489</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649104</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736704</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647958</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639067</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703499</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619162</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078622</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644452</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813585</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302252</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246926</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666596</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175859</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383813</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701169</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695338</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,16 +32709,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927188</v>
@@ -32727,19 +32727,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
         <v>0.2670576580354894</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,19 +32879,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336902</v>
@@ -32900,7 +32900,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,16 +32946,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927188</v>
@@ -32964,19 +32964,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
         <v>0.2670576580354894</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,19 +33116,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336902</v>
@@ -33137,7 +33137,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,16 +33183,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927188</v>
@@ -33201,19 +33201,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354894</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,19 +33353,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336902</v>
@@ -33374,7 +33374,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33669,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33690,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33818,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33830,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492241</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530457</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898692</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770703</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.82557620313</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
-        <v>408.702947571386</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355112</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735649</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137343</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713967</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873162</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>326.2624260966955</v>
       </c>
       <c r="N12" t="n">
-        <v>355.2385940046684</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>280.6254601782252</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>245.953437951024</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.8510818313028</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081121</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>268.4018009259944</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36527,16 +36527,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081121</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.135669847703</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36764,16 +36764,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081121</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178378</v>
@@ -36931,7 +36931,7 @@
         <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.851081831301</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -37001,16 +37001,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109073</v>
@@ -37150,10 +37150,10 @@
         <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>408.2698052695479</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209233</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37314,22 +37314,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081101</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M36" t="n">
-        <v>479.7106927671839</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>354.1326152325993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081124</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>427.5988335514877</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>224.1074838346388</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
@@ -38107,13 +38107,13 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2689717.491319635</v>
+        <v>2694656.754168667</v>
       </c>
     </row>
     <row r="7">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>249.2819505385571</v>
       </c>
       <c r="G2" t="n">
-        <v>314.6757550035595</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>154.8229679689709</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>74.53436060286474</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>346.3986052121963</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>17.23430169187246</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>106.0559553100031</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>234.4871813790489</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>36.07330930379553</v>
       </c>
       <c r="U8" t="n">
-        <v>39.22879305694475</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>12.73234413969066</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>26.32882004050031</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>126.9823010373413</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>11.79729717122467</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>64.34190763938388</v>
+        <v>87.65220976161997</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6519788371606</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>136.8736401074751</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896931</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>8.576299198037839</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896933</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>140.6610716410231</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>39.21716692389594</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404428</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>30.4401619564002</v>
       </c>
       <c r="X46" t="n">
-        <v>144.8197666582911</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="F2" t="n">
-        <v>525.2632558086682</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,25 +4415,25 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>652.8417512742476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>891.446759560896</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>891.446759560896</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>884.5012588116925</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2679.740705470876</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2679.740705470876</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2679.740705470876</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2679.740705470876</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2348.677818127306</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1995.909162857192</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1995.909162857192</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
         <v>201.8560754027576</v>
@@ -4710,67 +4710,67 @@
         <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>491.2732454397182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>491.2732454397182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2660.711404852774</v>
       </c>
       <c r="U8" t="n">
-        <v>2657.524047526359</v>
+        <v>2406.949619490865</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.461160182788</v>
+        <v>2075.886732147294</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.692504912674</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.226746651594</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>500.1394333084176</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>500.1394333084176</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>350.0227938960818</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>350.0227938960818</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>203.1328463981714</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>203.1328463981714</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>701.5342164887571</v>
+        <v>500.1394333084176</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>500.1394333084176</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698957</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.9950526279302</v>
+        <v>427.7268833816378</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>427.7268833816378</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>427.7268833816378</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
         <v>415.8104215925219</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.78763177146</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.78763177146</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.9950526279302</v>
+        <v>609.3753482118775</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110095</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.84934122136</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5673,16 +5673,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5837,7 +5837,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>235.4732935890486</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5910,7 +5910,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6147,7 +6147,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6180,13 +6180,13 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>217.4146113212049</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013843</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6487,28 +6487,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775513</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155902</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>534.1020230870773</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>534.1020230870773</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>754.8946022306075</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>754.8946022306075</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>534.1020230870773</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>755.1831334811264</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>465.7659634441658</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>237.7764125461485</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1459.302970634775</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1235.517555424281</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.7466045204288</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347409</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141522</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045613</v>
+        <v>644.2594646985458</v>
       </c>
       <c r="X46" t="n">
-        <v>584.7466045204288</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.7466045204288</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028816</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>15.8380490462294</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504727</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714801</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>96.03744927814574</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229571</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298099</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>40.26452006128649</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>134.6366654753445</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037968</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>161.3677477496533</v>
+        <v>138.0574456274172</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.0576765518765</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>9.560322539094102</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>140.3375291694983</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>14.74113413690256</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>7.954401377189242</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>79.43092547709077</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>158.7036430597073</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338517</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>256.0828363801908</v>
       </c>
       <c r="X46" t="n">
-        <v>80.88988873074607</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982126</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="H2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>586543.5896065631</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065626</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="I4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
+        <v>15045.66962143902</v>
+      </c>
+      <c r="K4" t="n">
         <v>15045.66962143909</v>
       </c>
-      <c r="K4" t="n">
-        <v>15045.66962143901</v>
-      </c>
       <c r="L4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,7 +26484,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>376147.2910835805</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835807</v>
+        <v>376147.2910835805</v>
       </c>
       <c r="E6" t="n">
-        <v>-46624.03370021076</v>
+        <v>-45746.90156646035</v>
       </c>
       <c r="F6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104348</v>
       </c>
       <c r="G6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104348</v>
       </c>
       <c r="H6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="I6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104352</v>
       </c>
       <c r="J6" t="n">
-        <v>302112.7835840925</v>
+        <v>302989.9157178419</v>
       </c>
       <c r="K6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104348</v>
       </c>
       <c r="L6" t="n">
-        <v>478536.0027766857</v>
+        <v>479413.1349104352</v>
       </c>
       <c r="M6" t="n">
-        <v>343734.9875428488</v>
+        <v>344612.1196765976</v>
       </c>
       <c r="N6" t="n">
-        <v>478536.0027766856</v>
+        <v>479413.1349104349</v>
       </c>
       <c r="O6" t="n">
-        <v>478536.0027766856</v>
+        <v>479413.134910435</v>
       </c>
       <c r="P6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104348</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="K4" t="n">
-        <v>1215.213643253574</v>
-      </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>157.5940952031544</v>
       </c>
       <c r="G2" t="n">
-        <v>99.10841501723553</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>25.00901221296644</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>177.6032827209633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>67.38556480859864</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.24410088293926</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>73.77602487193415</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>51.79469286292885</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>180.3750110538623</v>
       </c>
       <c r="U8" t="n">
-        <v>211.9953744513446</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>143.4385447021045</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>120.3363719396575</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28338,13 +28338,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.823790099157014e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,16 +32472,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927188</v>
@@ -32490,19 +32490,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
         <v>0.2670576580354894</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,19 +32642,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336902</v>
@@ -32663,7 +32663,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,16 +32709,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927188</v>
@@ -32727,19 +32727,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
         <v>0.2670576580354894</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,19 +32879,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336902</v>
@@ -32900,7 +32900,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,16 +32946,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927188</v>
@@ -32964,19 +32964,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
         <v>0.2670576580354894</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,19 +33116,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336902</v>
@@ -33137,7 +33137,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,16 +33183,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927188</v>
@@ -33201,19 +33201,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354894</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,19 +33353,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336902</v>
@@ -33374,7 +33374,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34783,22 +34783,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932186</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>326.2624260966955</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330542</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819975</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081121</v>
@@ -36138,13 +36138,13 @@
         <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109101</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980131</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209233</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36290,16 +36290,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081121</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341702</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980131</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209233</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36527,16 +36527,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081121</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734236</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36764,16 +36764,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081121</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958058</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -37001,16 +37001,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
